--- a/biology/Médecine/Hippocrate_(film)/Hippocrate_(film).xlsx
+++ b/biology/Médecine/Hippocrate_(film)/Hippocrate_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippocrate est un film dramatique français réalisé par Thomas Lilti, sorti en 2014.
 Il raconte l'histoire de Benjamin qui commence sa carrière de médecin par un stage en tant qu'interne dans le service que dirige son père. Mais malgré son enthousiasme initial, il est mis à rude épreuve dans sa découverte de la réalité du métier auquel il se destine.
@@ -514,16 +526,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation générale
-Benjamin Barois commence son internat au service dirigé par son père, le professeur Barois. Enthousiaste, il fait la connaissance d'Abdel Rezzak, un médecin algérien faisant fonction d'interne. Cependant, la dure réalité du travail hospitalier le rattrape bientôt. 
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Barois commence son internat au service dirigé par son père, le professeur Barois. Enthousiaste, il fait la connaissance d'Abdel Rezzak, un médecin algérien faisant fonction d'interne. Cependant, la dure réalité du travail hospitalier le rattrape bientôt. 
 En effet, lors d'une nuit de garde, Benjamin se rend au chevet d'un patient SDF, Jean-Michel Lemoine, qui souffre de douleurs abdominales. Benjamin le rassure comme il le peut et lui prescrit des antalgiques. Il ne peut cependant lui faire un ECG, l'appareil étant en panne. Le lendemain matin, une collègue lui apprend que M. Lemoine est décédé. 
 Sa hiérarchie — à commencer par son propre père — lui intime l'ordre de dire que l'ECG a bien été pratiqué et qu'il était normal, que l'homme est mort simplement parce que son organisme était usé, ce que par lâcheté il accepte.
 Une autre malade, en fin de vie, fait l'objet d'un acharnement thérapeutique, par manque de places en soins palliatifs. Révolté, Benjamin sollicite l'aide d'Abdel qui prend sur lui de mettre un terme à sa réanimation, ce qui va lui valoir un blâme de la part de la direction de l'hôpital, et compromettre gravement la suite de sa carrière
 Écœuré , Benjamin va se saouler et revient à l'hôpital faire un scandale. En sortant, il se fait renverser par une voiture.
 Opéré avec succès, Benjamin se remet tandis que son accident créé une révolte parmi le personnel médical qui, incriminant le manque de moyens auquel le contraint une gestion bureaucratique aux objectifs exclusivement comptables, exige et obtient la levée de la sanction infligée à Abdel.
 La fin du film montre Benjamin rétabli et désormais sûr de lui.
-Synopsis détaillé
-Benjamin est alors convoqué par sa supérieure, le Dr Denormandy, pour faire le point sur ce qui s'est produit. Benjamin avoue qu'il n'a pu faire l'ECG, ce à quoi le Dr Denormandy répond que si on le lui demande, il doit répondre qu'il l'a fait et qu'il n'a rien vu d'anormal. Le cas de ce patient détériore les relations entre Benjamin et Abdel, car Benjamin a dit à la veuve de M. Lemoine que c'était Abdel, et non lui, qui s'était occupé de son mari.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin est alors convoqué par sa supérieure, le Dr Denormandy, pour faire le point sur ce qui s'est produit. Benjamin avoue qu'il n'a pu faire l'ECG, ce à quoi le Dr Denormandy répond que si on le lui demande, il doit répondre qu'il l'a fait et qu'il n'a rien vu d'anormal. Le cas de ce patient détériore les relations entre Benjamin et Abdel, car Benjamin a dit à la veuve de M. Lemoine que c'était Abdel, et non lui, qui s'était occupé de son mari.
 En parallèle, Benjamin et Abdel prennent également en charge Mme Richard, octogénaire atteinte d'un cancer métastasé et ancienne gymnaste qui a été opérée du col du fémur. Discutant du traitement à administrer et de la douleur ressentie par Mme Richard, Abdel décide de lui installer une pompe à morphine afin qu’elle ne souffre pas. Cependant, il s'avère également que la patiente se nourrit très peu, ce qui met sa vie en danger. Abdel s'oppose alors au Dr Denormandy quant à la procédure à suivre, et accepte avec réticence que l'on retire la pompe à morphine.
 Lors d'une autre nuit de garde de Benjamin, ce dernier est appelé à la suite d'une perte de conscience de Mme Richard. Arrivant sur les lieux, il constate que ses collègues ont procédé à la réanimation de la patiente, ce qui provoque sa colère. Lorsque la famille de Mme Richard, prévenue par une infirmière, arrive à l'hôpital, Abdel et Benjamin discutent avec eux de la possibilité de mettre fin à la vie de la patiente, conformément à la loi Leonetti. La famille accepte, estimant qu'il est inutile de s'acharner davantage en faisant souffrir Mme Richard.
 Abdel et Benjamin n'avaient cependant pas à prendre cette décision par eux-mêmes et en pleine nuit. Ils sont donc convoqués pour une audience disciplinaire en présence du chef de l'équipe de réanimation, du Dr Denormandy et du professeur Barois. Après discussion, il est décidé de ne pas sanctionner Benjamin compte tenu de son âge et de l'émotion ressentie sur le moment. En revanche, une notification de faute doit être versée au dossier d'Abdel, au désarroi de celui-ci : en effet, cela l'empêchera probablement de pouvoir effectuer d'autres internats, mettant ainsi un terme à son projet de voir son équivalence de diplôme algérien reconnue et de pouvoir exercer en tant que médecin en France.
@@ -533,31 +585,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hippocrate_(film)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Hippocrate
@@ -571,52 +625,54 @@
 Son : Jean-Paul Hurier, Niels Barletta, Raphael Sohier
 Montage : Christel Dewynter
 Production : Emmanuel Barraux et Agnès Vallée
-Coproduction : Valérie Boyer[1]
-Sociétés de production[2] : 31 Juin Films, en coproduction avec France 2 Cinéma, avec la participation de France Télévisions, Canal+, Ciné+, le CNC et Le Pacte, en association avec Sofica Manon 3, Palatine Étoile 10 et Palatine Étoile 11, avec le soutien de la région Île-de-France, Fonds Images de la Diversité, l'Agence nationale pour la cohésion sociale et l'égalité des chances et ANGOA
-Sociétés de distribution[3] : Le Pacte (France) ; Les Films de l'Elysée (Belgique) ; FunFilm Distribution (Québec)
-Budget : 3 785 000 €[4]
+Coproduction : Valérie Boyer
+Sociétés de production : 31 Juin Films, en coproduction avec France 2 Cinéma, avec la participation de France Télévisions, Canal+, Ciné+, le CNC et Le Pacte, en association avec Sofica Manon 3, Palatine Étoile 10 et Palatine Étoile 11, avec le soutien de la région Île-de-France, Fonds Images de la Diversité, l'Agence nationale pour la cohésion sociale et l'égalité des chances et ANGOA
+Sociétés de distribution : Le Pacte (France) ; Les Films de l'Elysée (Belgique) ; FunFilm Distribution (Québec)
+Budget : 3 785 000 €
 Pays de production :  France
 Langue originale : français
-Format[5] : couleur - DCP Digital Cinema Package - 2,35:1 (Cinémascope) - son Dolby Digital
+Format : couleur - DCP Digital Cinema Package - 2,35:1 (Cinémascope) - son Dolby Digital
 Genre : comédie dramatique
 Durée : 98 minutes
-Dates de sortie[6] :
+Dates de sortie :
 France : 22 mai 2014 (Festival de Cannes) ; 12 juin 2014 (Champs-Élysées Film Festival) ; 5 juillet 2014 (Festival Paris Cinéma) ; 22 août 2014 (Festival du film francophone d'Angoulême) ; 3 septembre 2014 (Festival du film francophone d'Angoulême et sortie nationale)
-Belgique : 3 septembre 2014[7]
+Belgique : 3 septembre 2014
 Suisse romande : septembre 2014 (Festival du film français d'Helvétie)
-Québec : 19 décembre 2014[8]
-Classification[9] :
-France : tous publics[10]
-Belgique : tous publics (Alle Leeftijden)[7]
-Québec : tous publics - déconseillé aux jeunes enfants (G - General Rating)[8]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hippocrate_(film)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Québec : 19 décembre 2014
+Classification :
+France : tous publics
+Belgique : tous publics (Alle Leeftijden)
+Québec : tous publics - déconseillé aux jeunes enfants (G - General Rating)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vincent Lacoste : Benjamin Barois
 Reda Kateb : Abdel Rezzak
@@ -637,38 +693,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hippocrate_(film)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tournage
-Le film est principalement tourné pour les scènes intérieures dans une aile désaffectée de l'hôpital Rothschild dans le 12e arrondissement de Paris[11] et dans les rues environnantes pour les scènes extérieures. Les scènes de sous-sol et de salle de garde ont été tournées à l’hôpital Raymond-Poincaré de Garches où a travaillé en tant qu'interne le réalisateur Thomas Lilti[11] : pour l’occasion, le metteur en scène a fait repeindre une fresque pour y faire figurer Jacques Gamblin, un « grand patron » dans le film[12].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -690,14 +714,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Box-office
-Le film engendre 33 339 entrées lors de son premier jour d’exploitation[13] et 238 994 entrées lors de sa première semaine[14].
-Le film termine son exploitation au cinéma avec 950 231 entrées.
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est principalement tourné pour les scènes intérieures dans une aile désaffectée de l'hôpital Rothschild dans le 12e arrondissement de Paris et dans les rues environnantes pour les scènes extérieures. Les scènes de sous-sol et de salle de garde ont été tournées à l’hôpital Raymond-Poincaré de Garches où a travaillé en tant qu'interne le réalisateur Thomas Lilti : pour l’occasion, le metteur en scène a fait repeindre une fresque pour y faire figurer Jacques Gamblin, un « grand patron » dans le film.
 </t>
         </is>
       </c>
@@ -723,17 +751,126 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film engendre 33 339 entrées lors de son premier jour d’exploitation et 238 994 entrées lors de sa première semaine.
+Le film termine son exploitation au cinéma avec 950 231 entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Entre 2014 et 2015, Hippocrate a été sélectionné 13 fois dans diverses catégories et a remporté 2 récompenses[15],[16].
-Récompenses
-Festival du film francophone d'Angoulême 2014 : Valois d'or pour Thomas Lilti.
-Césars 2015 : César du meilleur acteur dans un second rôle pour Reda Kateb.
-Nominations
-Festival international du film de Gijón 2014 : Meilleur film pour Thomas Lilti.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2014 et 2015, Hippocrate a été sélectionné 13 fois dans diverses catégories et a remporté 2 récompenses,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Festival du film francophone d'Angoulême 2014 : Valois d'or pour Thomas Lilti.
+Césars 2015 : César du meilleur acteur dans un second rôle pour Reda Kateb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Festival international du film de Gijón 2014 : Meilleur film pour Thomas Lilti.
 Césars 2015 :
 Meilleur film pour Agnès Vallée, Emmanuel Barraux et Thomas Lilti,
 Meilleur réalisateur pour Thomas Lilti,
@@ -744,40 +881,79 @@
 Globe de Cristal 2015 :
 Meilleur film pour Thomas Lilti,
 Meilleur acteur pour Reda Kateb.
-Lumières de la presse internationale 2015 : Meilleur scénario pour Thomas Lilti, Baya Kasmi, Pierre Chosson et Julien Lilti.
-Sélections
-Semaine de la critique 2014 : Film de clôture pour Thomas Lilti.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hippocrate_(film)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Lumières de la presse internationale 2015 : Meilleur scénario pour Thomas Lilti, Baya Kasmi, Pierre Chosson et Julien Lilti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semaine de la critique 2014 : Film de clôture pour Thomas Lilti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippocrate_(film)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Série
-Le film est adapté en série depuis 2018 sur Canal + par Thomas Lilti (Hippocrate).
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est adapté en série depuis 2018 sur Canal + par Thomas Lilti (Hippocrate).
 </t>
         </is>
       </c>
